--- a/Text.xlsx
+++ b/Text.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="User info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
